--- a/Syllabus/attendance-sheet.xlsx
+++ b/Syllabus/attendance-sheet.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbhagia/Dropbox (CSU Fullerton)/Teaching/Econ441/Syllabus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbhagia/CSU Fullerton Dropbox/Div Bhagia/Teaching/Econ441/Syllabus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FB007F60-2E34-1547-8287-10DF3D55C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{800D1912-F029-454C-B62A-E1522B486DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attendance sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="22" uniqueCount="22">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Attendance Sheet </t>
   </si>
@@ -39,65 +50,83 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>Wijangco, Brianna-Li</t>
-  </si>
-  <si>
-    <t>Garcia Rodriguez,Angel</t>
-  </si>
-  <si>
-    <t>Cheung, Sidney</t>
-  </si>
-  <si>
-    <t>Early, Michael Patrick</t>
-  </si>
-  <si>
-    <t>George, Erik Ronald</t>
-  </si>
-  <si>
-    <t>Gonzalez, Martin Kristopher</t>
-  </si>
-  <si>
-    <t>Khan, Mishkat Hasin</t>
-  </si>
-  <si>
-    <t>Martinez, Salvador</t>
-  </si>
-  <si>
-    <t>Morrow, Parker Kenneth</t>
-  </si>
-  <si>
-    <t>Nguyen, Long Duc Thang</t>
-  </si>
-  <si>
-    <t>Poe, Hayden Ryan</t>
-  </si>
-  <si>
-    <t>Reda, Aly</t>
-  </si>
-  <si>
-    <t>Robles, Jessica</t>
-  </si>
-  <si>
-    <t>Sanborn, Steven Russell</t>
-  </si>
-  <si>
-    <t>Sanchez, Ricardo</t>
-  </si>
-  <si>
-    <t>Tran, Michelle Hoangoanh</t>
-  </si>
-  <si>
-    <t>Vera, Alexis Eduardo</t>
-  </si>
-  <si>
-    <t>Econ 441: Economic Research Methods</t>
+    <t>Sayed Waseem Abbas</t>
+  </si>
+  <si>
+    <t>Anthony Aldave</t>
+  </si>
+  <si>
+    <t>Mark G Berglund</t>
+  </si>
+  <si>
+    <t>Brice Burror Wildemuth</t>
+  </si>
+  <si>
+    <t>Daniel Castellanos</t>
+  </si>
+  <si>
+    <t>Ramiella Mae Resquites Chiu</t>
+  </si>
+  <si>
+    <t>Rod Cristi</t>
+  </si>
+  <si>
+    <t>Gerardo Antonio De La Riva</t>
+  </si>
+  <si>
+    <t>Stephanie Alexandra Djuran</t>
+  </si>
+  <si>
+    <t>Jonathan Edward Gitlin</t>
+  </si>
+  <si>
+    <t>Jack Husen</t>
+  </si>
+  <si>
+    <t>Annie Huynh</t>
+  </si>
+  <si>
+    <t>Nabeel Khan</t>
+  </si>
+  <si>
+    <t>Ly Le</t>
+  </si>
+  <si>
+    <t>Jack Metcalf</t>
+  </si>
+  <si>
+    <t>Elso Palluault</t>
+  </si>
+  <si>
+    <t>Olivia Paige Presto</t>
+  </si>
+  <si>
+    <t>Dhruv Bhadresh Shah</t>
+  </si>
+  <si>
+    <t>Christian George Stephens</t>
+  </si>
+  <si>
+    <t>Duyen Ngoc Phuong Tran</t>
+  </si>
+  <si>
+    <t>Nhung Trang Tran</t>
+  </si>
+  <si>
+    <t>Timothy Q Truong</t>
+  </si>
+  <si>
+    <t>Christopher Carlos Vigil</t>
+  </si>
+  <si>
+    <t>Econ 441: Introduction to Mathematical Economics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,6 +296,11 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="33">
@@ -625,7 +659,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -639,6 +673,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -994,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1045,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -1043,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -1052,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -1061,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -1070,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4"/>
     </row>
@@ -1079,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -1088,7 +1123,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4"/>
     </row>
@@ -1097,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4"/>
     </row>
@@ -1106,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4"/>
     </row>
@@ -1115,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4"/>
     </row>
@@ -1124,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -1133,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -1142,7 +1177,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4"/>
     </row>
@@ -1151,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4"/>
     </row>
@@ -1160,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4"/>
     </row>
@@ -1169,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -1178,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4"/>
     </row>
@@ -1187,9 +1222,63 @@
         <v>17</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
